--- a/感想/I班_まとめ.xlsx
+++ b/感想/I班_まとめ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\shachiku\感想\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\shachiku\感想\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -516,16 +516,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>麻子</t>
-    <rPh sb="0" eb="1">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>面白かったよ</t>
     <rPh sb="0" eb="2">
       <t>オモシロ</t>
@@ -856,6 +846,13 @@
     <t>死神のジャンプいい</t>
     <rPh sb="0" eb="2">
       <t>シニガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻＆るい</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1448,7 +1445,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1626,126 +1623,126 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -2215,5 +2212,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>